--- a/NatmiData/natmiOut_TPM/YoungD4/LR-pairs_lrc2p/Psen1-Notch1.xlsx
+++ b/NatmiData/natmiOut_TPM/YoungD4/LR-pairs_lrc2p/Psen1-Notch1.xlsx
@@ -540,16 +540,16 @@
         <v>1</v>
       </c>
       <c r="G2">
-        <v>16.38931533333334</v>
+        <v>15.981972</v>
       </c>
       <c r="H2">
-        <v>49.16794600000001</v>
+        <v>47.945916</v>
       </c>
       <c r="I2">
-        <v>0.1272611691689643</v>
+        <v>0.1372507760882863</v>
       </c>
       <c r="J2">
-        <v>0.1272611691689643</v>
+        <v>0.1372507760882863</v>
       </c>
       <c r="K2">
         <v>3</v>
@@ -558,28 +558,28 @@
         <v>1</v>
       </c>
       <c r="M2">
-        <v>60.14337933333334</v>
+        <v>68.63737500000001</v>
       </c>
       <c r="N2">
-        <v>180.430138</v>
+        <v>205.912125</v>
       </c>
       <c r="O2">
-        <v>0.5373443142606099</v>
+        <v>0.5415701538216162</v>
       </c>
       <c r="P2">
-        <v>0.5373443142606098</v>
+        <v>0.5415701538216162</v>
       </c>
       <c r="Q2">
-        <v>985.7088091062833</v>
+        <v>1096.9606054035</v>
       </c>
       <c r="R2">
-        <v>8871.37928195655</v>
+        <v>9872.6454486315</v>
       </c>
       <c r="S2">
-        <v>0.06838306567910057</v>
+        <v>0.0743309239182694</v>
       </c>
       <c r="T2">
-        <v>0.06838306567910056</v>
+        <v>0.0743309239182694</v>
       </c>
     </row>
     <row r="3" spans="1:20">
@@ -602,16 +602,16 @@
         <v>1</v>
       </c>
       <c r="G3">
-        <v>16.38931533333334</v>
+        <v>15.981972</v>
       </c>
       <c r="H3">
-        <v>49.16794600000001</v>
+        <v>47.945916</v>
       </c>
       <c r="I3">
-        <v>0.1272611691689643</v>
+        <v>0.1372507760882863</v>
       </c>
       <c r="J3">
-        <v>0.1272611691689643</v>
+        <v>0.1372507760882863</v>
       </c>
       <c r="K3">
         <v>3</v>
@@ -626,22 +626,22 @@
         <v>33.150224</v>
       </c>
       <c r="O3">
-        <v>0.09872565958390839</v>
+        <v>0.08718851262838957</v>
       </c>
       <c r="P3">
-        <v>0.09872565958390837</v>
+        <v>0.08718851262838957</v>
       </c>
       <c r="Q3">
-        <v>181.1031581688783</v>
+        <v>176.601983920576</v>
       </c>
       <c r="R3">
-        <v>1629.928423519904</v>
+        <v>1589.417855285184</v>
       </c>
       <c r="S3">
-        <v>0.01256394286562534</v>
+        <v>0.01196669102422982</v>
       </c>
       <c r="T3">
-        <v>0.01256394286562534</v>
+        <v>0.01196669102422982</v>
       </c>
     </row>
     <row r="4" spans="1:20">
@@ -664,16 +664,16 @@
         <v>1</v>
       </c>
       <c r="G4">
-        <v>16.38931533333334</v>
+        <v>15.981972</v>
       </c>
       <c r="H4">
-        <v>49.16794600000001</v>
+        <v>47.945916</v>
       </c>
       <c r="I4">
-        <v>0.1272611691689643</v>
+        <v>0.1372507760882863</v>
       </c>
       <c r="J4">
-        <v>0.1272611691689643</v>
+        <v>0.1372507760882863</v>
       </c>
       <c r="K4">
         <v>3</v>
@@ -682,28 +682,28 @@
         <v>1</v>
       </c>
       <c r="M4">
-        <v>12.25483666666667</v>
+        <v>16.21089566666667</v>
       </c>
       <c r="N4">
-        <v>36.76451</v>
+        <v>48.632687</v>
       </c>
       <c r="O4">
-        <v>0.1094894712937444</v>
+        <v>0.1279089892319285</v>
       </c>
       <c r="P4">
-        <v>0.1094894712937444</v>
+        <v>0.1279089892319285</v>
       </c>
       <c r="Q4">
-        <v>200.8483824884956</v>
+        <v>259.082080639588</v>
       </c>
       <c r="R4">
-        <v>1807.63544239646</v>
+        <v>2331.738725756292</v>
       </c>
       <c r="S4">
-        <v>0.01393375812853366</v>
+        <v>0.01755560804075044</v>
       </c>
       <c r="T4">
-        <v>0.01393375812853366</v>
+        <v>0.01755560804075044</v>
       </c>
     </row>
     <row r="5" spans="1:20">
@@ -726,16 +726,16 @@
         <v>1</v>
       </c>
       <c r="G5">
-        <v>16.38931533333334</v>
+        <v>15.981972</v>
       </c>
       <c r="H5">
-        <v>49.16794600000001</v>
+        <v>47.945916</v>
       </c>
       <c r="I5">
-        <v>0.1272611691689643</v>
+        <v>0.1372507760882863</v>
       </c>
       <c r="J5">
-        <v>0.1272611691689643</v>
+        <v>0.1372507760882863</v>
       </c>
       <c r="K5">
         <v>3</v>
@@ -744,28 +744,28 @@
         <v>1</v>
       </c>
       <c r="M5">
-        <v>15.358189</v>
+        <v>20.32546233333333</v>
       </c>
       <c r="N5">
-        <v>46.074567</v>
+        <v>60.976387</v>
       </c>
       <c r="O5">
-        <v>0.1372160265679646</v>
+        <v>0.1603741949973873</v>
       </c>
       <c r="P5">
-        <v>0.1372160265679646</v>
+        <v>0.1603741949973873</v>
       </c>
       <c r="Q5">
-        <v>251.7102024699314</v>
+        <v>324.840969898388</v>
       </c>
       <c r="R5">
-        <v>2265.391822229382</v>
+        <v>2923.568729085492</v>
       </c>
       <c r="S5">
-        <v>0.01746227196975884</v>
+        <v>0.02201148272792557</v>
       </c>
       <c r="T5">
-        <v>0.01746227196975884</v>
+        <v>0.02201148272792557</v>
       </c>
     </row>
     <row r="6" spans="1:20">
@@ -788,16 +788,16 @@
         <v>1</v>
       </c>
       <c r="G6">
-        <v>16.38931533333334</v>
+        <v>15.981972</v>
       </c>
       <c r="H6">
-        <v>49.16794600000001</v>
+        <v>47.945916</v>
       </c>
       <c r="I6">
-        <v>0.1272611691689643</v>
+        <v>0.1372507760882863</v>
       </c>
       <c r="J6">
-        <v>0.1272611691689643</v>
+        <v>0.1372507760882863</v>
       </c>
       <c r="K6">
         <v>3</v>
@@ -806,28 +806,28 @@
         <v>1</v>
       </c>
       <c r="M6">
-        <v>13.120599</v>
+        <v>10.513928</v>
       </c>
       <c r="N6">
-        <v>39.361797</v>
+        <v>31.541784</v>
       </c>
       <c r="O6">
-        <v>0.1172245282937728</v>
+        <v>0.08295814932067838</v>
       </c>
       <c r="P6">
-        <v>0.1172245282937728</v>
+        <v>0.08295814932067838</v>
       </c>
       <c r="Q6">
-        <v>215.037634373218</v>
+        <v>168.033302906016</v>
       </c>
       <c r="R6">
-        <v>1935.338709358962</v>
+        <v>1512.299726154144</v>
       </c>
       <c r="S6">
-        <v>0.01491813052594586</v>
+        <v>0.01138607037711105</v>
       </c>
       <c r="T6">
-        <v>0.01491813052594585</v>
+        <v>0.01138607037711105</v>
       </c>
     </row>
     <row r="7" spans="1:20">
@@ -853,13 +853,13 @@
         <v>23.071008</v>
       </c>
       <c r="H7">
-        <v>69.21302399999999</v>
+        <v>69.213024</v>
       </c>
       <c r="I7">
-        <v>0.1791437526383466</v>
+        <v>0.1981303529463737</v>
       </c>
       <c r="J7">
-        <v>0.1791437526383466</v>
+        <v>0.1981303529463737</v>
       </c>
       <c r="K7">
         <v>3</v>
@@ -868,28 +868,28 @@
         <v>1</v>
       </c>
       <c r="M7">
-        <v>60.14337933333334</v>
+        <v>68.63737500000001</v>
       </c>
       <c r="N7">
-        <v>180.430138</v>
+        <v>205.912125</v>
       </c>
       <c r="O7">
-        <v>0.5373443142606099</v>
+        <v>0.5415701538216162</v>
       </c>
       <c r="P7">
-        <v>0.5373443142606098</v>
+        <v>0.5415701538216162</v>
       </c>
       <c r="Q7">
-        <v>1387.568385746368</v>
+        <v>1583.533427724</v>
       </c>
       <c r="R7">
-        <v>12488.11547171731</v>
+        <v>14251.800849516</v>
       </c>
       <c r="S7">
-        <v>0.09626187691552467</v>
+        <v>0.1073014857218987</v>
       </c>
       <c r="T7">
-        <v>0.09626187691552464</v>
+        <v>0.1073014857218987</v>
       </c>
     </row>
     <row r="8" spans="1:20">
@@ -915,13 +915,13 @@
         <v>23.071008</v>
       </c>
       <c r="H8">
-        <v>69.21302399999999</v>
+        <v>69.213024</v>
       </c>
       <c r="I8">
-        <v>0.1791437526383466</v>
+        <v>0.1981303529463737</v>
       </c>
       <c r="J8">
-        <v>0.1791437526383466</v>
+        <v>0.1981303529463737</v>
       </c>
       <c r="K8">
         <v>3</v>
@@ -936,10 +936,10 @@
         <v>33.150224</v>
       </c>
       <c r="O8">
-        <v>0.09872565958390839</v>
+        <v>0.08718851262838957</v>
       </c>
       <c r="P8">
-        <v>0.09872565958390837</v>
+        <v>0.08718851262838957</v>
       </c>
       <c r="Q8">
         <v>254.936361035264</v>
@@ -948,10 +948,10 @@
         <v>2294.427249317376</v>
       </c>
       <c r="S8">
-        <v>0.01768608513955729</v>
+        <v>0.01727469077993218</v>
       </c>
       <c r="T8">
-        <v>0.01768608513955729</v>
+        <v>0.01727469077993218</v>
       </c>
     </row>
     <row r="9" spans="1:20">
@@ -977,13 +977,13 @@
         <v>23.071008</v>
       </c>
       <c r="H9">
-        <v>69.21302399999999</v>
+        <v>69.213024</v>
       </c>
       <c r="I9">
-        <v>0.1791437526383466</v>
+        <v>0.1981303529463737</v>
       </c>
       <c r="J9">
-        <v>0.1791437526383466</v>
+        <v>0.1981303529463737</v>
       </c>
       <c r="K9">
         <v>3</v>
@@ -992,28 +992,28 @@
         <v>1</v>
       </c>
       <c r="M9">
-        <v>12.25483666666667</v>
+        <v>16.21089566666667</v>
       </c>
       <c r="N9">
-        <v>36.76451</v>
+        <v>48.632687</v>
       </c>
       <c r="O9">
-        <v>0.1094894712937444</v>
+        <v>0.1279089892319285</v>
       </c>
       <c r="P9">
-        <v>0.1094894712937444</v>
+        <v>0.1279089892319285</v>
       </c>
       <c r="Q9">
-        <v>282.73143477536</v>
+        <v>374.0017036128321</v>
       </c>
       <c r="R9">
-        <v>2544.58291297824</v>
+        <v>3366.015332515488</v>
       </c>
       <c r="S9">
-        <v>0.01961435476194989</v>
+        <v>0.0253426531815359</v>
       </c>
       <c r="T9">
-        <v>0.01961435476194989</v>
+        <v>0.0253426531815359</v>
       </c>
     </row>
     <row r="10" spans="1:20">
@@ -1039,13 +1039,13 @@
         <v>23.071008</v>
       </c>
       <c r="H10">
-        <v>69.21302399999999</v>
+        <v>69.213024</v>
       </c>
       <c r="I10">
-        <v>0.1791437526383466</v>
+        <v>0.1981303529463737</v>
       </c>
       <c r="J10">
-        <v>0.1791437526383466</v>
+        <v>0.1981303529463737</v>
       </c>
       <c r="K10">
         <v>3</v>
@@ -1054,28 +1054,28 @@
         <v>1</v>
       </c>
       <c r="M10">
-        <v>15.358189</v>
+        <v>20.32546233333333</v>
       </c>
       <c r="N10">
-        <v>46.074567</v>
+        <v>60.976387</v>
       </c>
       <c r="O10">
-        <v>0.1372160265679646</v>
+        <v>0.1603741949973873</v>
       </c>
       <c r="P10">
-        <v>0.1372160265679646</v>
+        <v>0.1603741949973873</v>
       </c>
       <c r="Q10">
-        <v>354.328901284512</v>
+        <v>468.9289040960321</v>
       </c>
       <c r="R10">
-        <v>3188.960111560608</v>
+        <v>4220.360136864289</v>
       </c>
       <c r="S10">
-        <v>0.02458139392150825</v>
+        <v>0.03177499585832291</v>
       </c>
       <c r="T10">
-        <v>0.02458139392150824</v>
+        <v>0.03177499585832291</v>
       </c>
     </row>
     <row r="11" spans="1:20">
@@ -1101,13 +1101,13 @@
         <v>23.071008</v>
       </c>
       <c r="H11">
-        <v>69.21302399999999</v>
+        <v>69.213024</v>
       </c>
       <c r="I11">
-        <v>0.1791437526383466</v>
+        <v>0.1981303529463737</v>
       </c>
       <c r="J11">
-        <v>0.1791437526383466</v>
+        <v>0.1981303529463737</v>
       </c>
       <c r="K11">
         <v>3</v>
@@ -1116,28 +1116,28 @@
         <v>1</v>
       </c>
       <c r="M11">
-        <v>13.120599</v>
+        <v>10.513928</v>
       </c>
       <c r="N11">
-        <v>39.361797</v>
+        <v>31.541784</v>
       </c>
       <c r="O11">
-        <v>0.1172245282937728</v>
+        <v>0.08295814932067838</v>
       </c>
       <c r="P11">
-        <v>0.1172245282937728</v>
+        <v>0.08295814932067838</v>
       </c>
       <c r="Q11">
-        <v>302.7054444937919</v>
+        <v>242.566916999424</v>
       </c>
       <c r="R11">
-        <v>2724.349000444127</v>
+        <v>2183.102252994816</v>
       </c>
       <c r="S11">
-        <v>0.02100004189980649</v>
+        <v>0.01643652740468398</v>
       </c>
       <c r="T11">
-        <v>0.02100004189980649</v>
+        <v>0.01643652740468398</v>
       </c>
     </row>
     <row r="12" spans="1:20">
@@ -1160,16 +1160,16 @@
         <v>1</v>
       </c>
       <c r="G12">
-        <v>37.292974</v>
+        <v>40.09539033333333</v>
       </c>
       <c r="H12">
-        <v>111.878922</v>
+        <v>120.286171</v>
       </c>
       <c r="I12">
-        <v>0.2895757007844777</v>
+        <v>0.3443331924754199</v>
       </c>
       <c r="J12">
-        <v>0.2895757007844777</v>
+        <v>0.3443331924754199</v>
       </c>
       <c r="K12">
         <v>3</v>
@@ -1178,28 +1178,28 @@
         <v>1</v>
       </c>
       <c r="M12">
-        <v>60.14337933333334</v>
+        <v>68.63737500000001</v>
       </c>
       <c r="N12">
-        <v>180.430138</v>
+        <v>205.912125</v>
       </c>
       <c r="O12">
-        <v>0.5373443142606099</v>
+        <v>0.5415701538216162</v>
       </c>
       <c r="P12">
-        <v>0.5373443142606098</v>
+        <v>0.5415701538216162</v>
       </c>
       <c r="Q12">
-        <v>2242.925481750137</v>
+        <v>2752.042342080375</v>
       </c>
       <c r="R12">
-        <v>20186.32933575124</v>
+        <v>24768.38107872337</v>
       </c>
       <c r="S12">
-        <v>0.1556018563645707</v>
+        <v>0.1864805800148013</v>
       </c>
       <c r="T12">
-        <v>0.1556018563645707</v>
+        <v>0.1864805800148013</v>
       </c>
     </row>
     <row r="13" spans="1:20">
@@ -1222,16 +1222,16 @@
         <v>1</v>
       </c>
       <c r="G13">
-        <v>37.292974</v>
+        <v>40.09539033333333</v>
       </c>
       <c r="H13">
-        <v>111.878922</v>
+        <v>120.286171</v>
       </c>
       <c r="I13">
-        <v>0.2895757007844777</v>
+        <v>0.3443331924754199</v>
       </c>
       <c r="J13">
-        <v>0.2895757007844777</v>
+        <v>0.3443331924754199</v>
       </c>
       <c r="K13">
         <v>3</v>
@@ -1246,22 +1246,22 @@
         <v>33.150224</v>
       </c>
       <c r="O13">
-        <v>0.09872565958390839</v>
+        <v>0.08718851262838957</v>
       </c>
       <c r="P13">
-        <v>0.09872565958390837</v>
+        <v>0.08718851262838957</v>
       </c>
       <c r="Q13">
-        <v>412.0901472420587</v>
+        <v>443.0570569724783</v>
       </c>
       <c r="R13">
-        <v>3708.811325178528</v>
+        <v>3987.513512752304</v>
       </c>
       <c r="S13">
-        <v>0.02858855205942006</v>
+        <v>0.03002189890051684</v>
       </c>
       <c r="T13">
-        <v>0.02858855205942006</v>
+        <v>0.03002189890051684</v>
       </c>
     </row>
     <row r="14" spans="1:20">
@@ -1284,16 +1284,16 @@
         <v>1</v>
       </c>
       <c r="G14">
-        <v>37.292974</v>
+        <v>40.09539033333333</v>
       </c>
       <c r="H14">
-        <v>111.878922</v>
+        <v>120.286171</v>
       </c>
       <c r="I14">
-        <v>0.2895757007844777</v>
+        <v>0.3443331924754199</v>
       </c>
       <c r="J14">
-        <v>0.2895757007844777</v>
+        <v>0.3443331924754199</v>
       </c>
       <c r="K14">
         <v>3</v>
@@ -1302,28 +1302,28 @@
         <v>1</v>
       </c>
       <c r="M14">
-        <v>12.25483666666667</v>
+        <v>16.21089566666667</v>
       </c>
       <c r="N14">
-        <v>36.76451</v>
+        <v>48.632687</v>
       </c>
       <c r="O14">
-        <v>0.1094894712937444</v>
+        <v>0.1279089892319285</v>
       </c>
       <c r="P14">
-        <v>0.1094894712937444</v>
+        <v>0.1279089892319285</v>
       </c>
       <c r="Q14">
-        <v>457.0193051842467</v>
+        <v>649.982189407942</v>
       </c>
       <c r="R14">
-        <v>4113.17374665822</v>
+        <v>5849.839704671477</v>
       </c>
       <c r="S14">
-        <v>0.03170549037840798</v>
+        <v>0.04404331060853404</v>
       </c>
       <c r="T14">
-        <v>0.03170549037840797</v>
+        <v>0.04404331060853404</v>
       </c>
     </row>
     <row r="15" spans="1:20">
@@ -1346,16 +1346,16 @@
         <v>1</v>
       </c>
       <c r="G15">
-        <v>37.292974</v>
+        <v>40.09539033333333</v>
       </c>
       <c r="H15">
-        <v>111.878922</v>
+        <v>120.286171</v>
       </c>
       <c r="I15">
-        <v>0.2895757007844777</v>
+        <v>0.3443331924754199</v>
       </c>
       <c r="J15">
-        <v>0.2895757007844777</v>
+        <v>0.3443331924754199</v>
       </c>
       <c r="K15">
         <v>3</v>
@@ -1364,28 +1364,28 @@
         <v>1</v>
       </c>
       <c r="M15">
-        <v>15.358189</v>
+        <v>20.32546233333333</v>
       </c>
       <c r="N15">
-        <v>46.074567</v>
+        <v>60.976387</v>
       </c>
       <c r="O15">
-        <v>0.1372160265679646</v>
+        <v>0.1603741949973873</v>
       </c>
       <c r="P15">
-        <v>0.1372160265679646</v>
+        <v>0.1603741949973873</v>
       </c>
       <c r="Q15">
-        <v>572.752543064086</v>
+        <v>814.9573459604642</v>
       </c>
       <c r="R15">
-        <v>5154.772887576774</v>
+        <v>7334.616113644177</v>
       </c>
       <c r="S15">
-        <v>0.03973442705227987</v>
+        <v>0.05522215855412589</v>
       </c>
       <c r="T15">
-        <v>0.03973442705227986</v>
+        <v>0.05522215855412589</v>
       </c>
     </row>
     <row r="16" spans="1:20">
@@ -1408,16 +1408,16 @@
         <v>1</v>
       </c>
       <c r="G16">
-        <v>37.292974</v>
+        <v>40.09539033333333</v>
       </c>
       <c r="H16">
-        <v>111.878922</v>
+        <v>120.286171</v>
       </c>
       <c r="I16">
-        <v>0.2895757007844777</v>
+        <v>0.3443331924754199</v>
       </c>
       <c r="J16">
-        <v>0.2895757007844777</v>
+        <v>0.3443331924754199</v>
       </c>
       <c r="K16">
         <v>3</v>
@@ -1426,28 +1426,28 @@
         <v>1</v>
       </c>
       <c r="M16">
-        <v>13.120599</v>
+        <v>10.513928</v>
       </c>
       <c r="N16">
-        <v>39.361797</v>
+        <v>31.541784</v>
       </c>
       <c r="O16">
-        <v>0.1172245282937728</v>
+        <v>0.08295814932067838</v>
       </c>
       <c r="P16">
-        <v>0.1172245282937728</v>
+        <v>0.08295814932067838</v>
       </c>
       <c r="Q16">
-        <v>489.306157371426</v>
+        <v>421.5600470965627</v>
       </c>
       <c r="R16">
-        <v>4403.755416342834</v>
+        <v>3794.040423869064</v>
       </c>
       <c r="S16">
-        <v>0.03394537492979909</v>
+        <v>0.02856524439744177</v>
       </c>
       <c r="T16">
-        <v>0.03394537492979908</v>
+        <v>0.02856524439744177</v>
       </c>
     </row>
     <row r="17" spans="1:20">
@@ -1470,16 +1470,16 @@
         <v>1</v>
       </c>
       <c r="G17">
-        <v>8.200153666666667</v>
+        <v>8.831340666666666</v>
       </c>
       <c r="H17">
-        <v>24.600461</v>
+        <v>26.494022</v>
       </c>
       <c r="I17">
-        <v>0.06367326039927532</v>
+        <v>0.07584222775512579</v>
       </c>
       <c r="J17">
-        <v>0.06367326039927533</v>
+        <v>0.07584222775512579</v>
       </c>
       <c r="K17">
         <v>3</v>
@@ -1488,28 +1488,28 @@
         <v>1</v>
       </c>
       <c r="M17">
-        <v>60.14337933333334</v>
+        <v>68.63737500000001</v>
       </c>
       <c r="N17">
-        <v>180.430138</v>
+        <v>205.912125</v>
       </c>
       <c r="O17">
-        <v>0.5373443142606099</v>
+        <v>0.5415701538216162</v>
       </c>
       <c r="P17">
-        <v>0.5373443142606098</v>
+        <v>0.5415701538216162</v>
       </c>
       <c r="Q17">
-        <v>493.1849525659576</v>
+        <v>606.16004109075</v>
       </c>
       <c r="R17">
-        <v>4438.664573093619</v>
+        <v>5455.44036981675</v>
       </c>
       <c r="S17">
-        <v>0.03421446444598585</v>
+        <v>0.04107388695151753</v>
       </c>
       <c r="T17">
-        <v>0.03421446444598585</v>
+        <v>0.04107388695151753</v>
       </c>
     </row>
     <row r="18" spans="1:20">
@@ -1532,16 +1532,16 @@
         <v>1</v>
       </c>
       <c r="G18">
-        <v>8.200153666666667</v>
+        <v>8.831340666666666</v>
       </c>
       <c r="H18">
-        <v>24.600461</v>
+        <v>26.494022</v>
       </c>
       <c r="I18">
-        <v>0.06367326039927532</v>
+        <v>0.07584222775512579</v>
       </c>
       <c r="J18">
-        <v>0.06367326039927533</v>
+        <v>0.07584222775512579</v>
       </c>
       <c r="K18">
         <v>3</v>
@@ -1556,22 +1556,22 @@
         <v>33.150224</v>
       </c>
       <c r="O18">
-        <v>0.09872565958390839</v>
+        <v>0.08718851262838957</v>
       </c>
       <c r="P18">
-        <v>0.09872565958390837</v>
+        <v>0.08718851262838957</v>
       </c>
       <c r="Q18">
-        <v>90.61231029480712</v>
+        <v>97.58697377343644</v>
       </c>
       <c r="R18">
-        <v>815.5107926532642</v>
+        <v>878.2827639609279</v>
       </c>
       <c r="S18">
-        <v>0.00628618463077641</v>
+        <v>0.006612571032392984</v>
       </c>
       <c r="T18">
-        <v>0.00628618463077641</v>
+        <v>0.006612571032392984</v>
       </c>
     </row>
     <row r="19" spans="1:20">
@@ -1594,16 +1594,16 @@
         <v>1</v>
       </c>
       <c r="G19">
-        <v>8.200153666666667</v>
+        <v>8.831340666666666</v>
       </c>
       <c r="H19">
-        <v>24.600461</v>
+        <v>26.494022</v>
       </c>
       <c r="I19">
-        <v>0.06367326039927532</v>
+        <v>0.07584222775512579</v>
       </c>
       <c r="J19">
-        <v>0.06367326039927533</v>
+        <v>0.07584222775512579</v>
       </c>
       <c r="K19">
         <v>3</v>
@@ -1612,28 +1612,28 @@
         <v>1</v>
       </c>
       <c r="M19">
-        <v>12.25483666666667</v>
+        <v>16.21089566666667</v>
       </c>
       <c r="N19">
-        <v>36.76451</v>
+        <v>48.632687</v>
       </c>
       <c r="O19">
-        <v>0.1094894712937444</v>
+        <v>0.1279089892319285</v>
       </c>
       <c r="P19">
-        <v>0.1094894712937444</v>
+        <v>0.1279089892319285</v>
       </c>
       <c r="Q19">
-        <v>100.4915438265678</v>
+        <v>143.1639421441238</v>
       </c>
       <c r="R19">
-        <v>904.4238944391101</v>
+        <v>1288.475479297114</v>
       </c>
       <c r="S19">
-        <v>0.006971551616665565</v>
+        <v>0.009700902693255855</v>
       </c>
       <c r="T19">
-        <v>0.006971551616665565</v>
+        <v>0.009700902693255855</v>
       </c>
     </row>
     <row r="20" spans="1:20">
@@ -1656,16 +1656,16 @@
         <v>1</v>
       </c>
       <c r="G20">
-        <v>8.200153666666667</v>
+        <v>8.831340666666666</v>
       </c>
       <c r="H20">
-        <v>24.600461</v>
+        <v>26.494022</v>
       </c>
       <c r="I20">
-        <v>0.06367326039927532</v>
+        <v>0.07584222775512579</v>
       </c>
       <c r="J20">
-        <v>0.06367326039927533</v>
+        <v>0.07584222775512579</v>
       </c>
       <c r="K20">
         <v>3</v>
@@ -1674,28 +1674,28 @@
         <v>1</v>
       </c>
       <c r="M20">
-        <v>15.358189</v>
+        <v>20.32546233333333</v>
       </c>
       <c r="N20">
-        <v>46.074567</v>
+        <v>60.976387</v>
       </c>
       <c r="O20">
-        <v>0.1372160265679646</v>
+        <v>0.1603741949973873</v>
       </c>
       <c r="P20">
-        <v>0.1372160265679646</v>
+        <v>0.1603741949973873</v>
       </c>
       <c r="Q20">
-        <v>125.9395098417097</v>
+        <v>179.5010820731682</v>
       </c>
       <c r="R20">
-        <v>1133.455588575387</v>
+        <v>1615.509738658514</v>
       </c>
       <c r="S20">
-        <v>0.008736991790615892</v>
+        <v>0.01216313622303681</v>
       </c>
       <c r="T20">
-        <v>0.008736991790615893</v>
+        <v>0.01216313622303681</v>
       </c>
     </row>
     <row r="21" spans="1:20">
@@ -1718,16 +1718,16 @@
         <v>1</v>
       </c>
       <c r="G21">
-        <v>8.200153666666667</v>
+        <v>8.831340666666666</v>
       </c>
       <c r="H21">
-        <v>24.600461</v>
+        <v>26.494022</v>
       </c>
       <c r="I21">
-        <v>0.06367326039927532</v>
+        <v>0.07584222775512579</v>
       </c>
       <c r="J21">
-        <v>0.06367326039927533</v>
+        <v>0.07584222775512579</v>
       </c>
       <c r="K21">
         <v>3</v>
@@ -1736,28 +1736,28 @@
         <v>1</v>
       </c>
       <c r="M21">
-        <v>13.120599</v>
+        <v>10.513928</v>
       </c>
       <c r="N21">
-        <v>39.361797</v>
+        <v>31.541784</v>
       </c>
       <c r="O21">
-        <v>0.1172245282937728</v>
+        <v>0.08295814932067838</v>
       </c>
       <c r="P21">
-        <v>0.1172245282937728</v>
+        <v>0.08295814932067838</v>
       </c>
       <c r="Q21">
-        <v>107.590927998713</v>
+        <v>92.85207991280532</v>
       </c>
       <c r="R21">
-        <v>968.318351988417</v>
+        <v>835.668719215248</v>
       </c>
       <c r="S21">
-        <v>0.007464067915231612</v>
+        <v>0.006291730854922624</v>
       </c>
       <c r="T21">
-        <v>0.007464067915231612</v>
+        <v>0.006291730854922624</v>
       </c>
     </row>
     <row r="22" spans="1:20">
@@ -1780,16 +1780,16 @@
         <v>1</v>
       </c>
       <c r="G22">
-        <v>43.83143633333333</v>
+        <v>28.463871</v>
       </c>
       <c r="H22">
-        <v>131.494309</v>
+        <v>85.39161300000001</v>
       </c>
       <c r="I22">
-        <v>0.3403461170089362</v>
+        <v>0.2444434507347945</v>
       </c>
       <c r="J22">
-        <v>0.3403461170089362</v>
+        <v>0.2444434507347945</v>
       </c>
       <c r="K22">
         <v>3</v>
@@ -1798,28 +1798,28 @@
         <v>1</v>
       </c>
       <c r="M22">
-        <v>60.14337933333334</v>
+        <v>68.63737500000001</v>
       </c>
       <c r="N22">
-        <v>180.430138</v>
+        <v>205.912125</v>
       </c>
       <c r="O22">
-        <v>0.5373443142606099</v>
+        <v>0.5415701538216162</v>
       </c>
       <c r="P22">
-        <v>0.5373443142606098</v>
+        <v>0.5415701538216162</v>
       </c>
       <c r="Q22">
-        <v>2636.170702120516</v>
+        <v>1953.685387778625</v>
       </c>
       <c r="R22">
-        <v>23725.53631908464</v>
+        <v>17583.16849000763</v>
       </c>
       <c r="S22">
-        <v>0.1828830508554281</v>
+        <v>0.1323832772151293</v>
       </c>
       <c r="T22">
-        <v>0.1828830508554281</v>
+        <v>0.1323832772151293</v>
       </c>
     </row>
     <row r="23" spans="1:20">
@@ -1842,16 +1842,16 @@
         <v>1</v>
       </c>
       <c r="G23">
-        <v>43.83143633333333</v>
+        <v>28.463871</v>
       </c>
       <c r="H23">
-        <v>131.494309</v>
+        <v>85.39161300000001</v>
       </c>
       <c r="I23">
-        <v>0.3403461170089362</v>
+        <v>0.2444434507347945</v>
       </c>
       <c r="J23">
-        <v>0.3403461170089362</v>
+        <v>0.2444434507347945</v>
       </c>
       <c r="K23">
         <v>3</v>
@@ -1866,22 +1866,22 @@
         <v>33.150224</v>
       </c>
       <c r="O23">
-        <v>0.09872565958390839</v>
+        <v>0.08718851262838957</v>
       </c>
       <c r="P23">
-        <v>0.09872565958390837</v>
+        <v>0.08718851262838957</v>
       </c>
       <c r="Q23">
-        <v>484.3406442305795</v>
+        <v>314.527899852368</v>
       </c>
       <c r="R23">
-        <v>4359.065798075216</v>
+        <v>2830.751098671312</v>
       </c>
       <c r="S23">
-        <v>0.03360089488852928</v>
+        <v>0.02131266089131775</v>
       </c>
       <c r="T23">
-        <v>0.03360089488852928</v>
+        <v>0.02131266089131776</v>
       </c>
     </row>
     <row r="24" spans="1:20">
@@ -1904,16 +1904,16 @@
         <v>1</v>
       </c>
       <c r="G24">
-        <v>43.83143633333333</v>
+        <v>28.463871</v>
       </c>
       <c r="H24">
-        <v>131.494309</v>
+        <v>85.39161300000001</v>
       </c>
       <c r="I24">
-        <v>0.3403461170089362</v>
+        <v>0.2444434507347945</v>
       </c>
       <c r="J24">
-        <v>0.3403461170089362</v>
+        <v>0.2444434507347945</v>
       </c>
       <c r="K24">
         <v>3</v>
@@ -1922,28 +1922,28 @@
         <v>1</v>
       </c>
       <c r="M24">
-        <v>12.25483666666667</v>
+        <v>16.21089566666667</v>
       </c>
       <c r="N24">
-        <v>36.76451</v>
+        <v>48.632687</v>
       </c>
       <c r="O24">
-        <v>0.1094894712937444</v>
+        <v>0.1279089892319285</v>
       </c>
       <c r="P24">
-        <v>0.1094894712937444</v>
+        <v>0.1279089892319285</v>
       </c>
       <c r="Q24">
-        <v>537.1470931303988</v>
+        <v>461.4248430504591</v>
       </c>
       <c r="R24">
-        <v>4834.32383817359</v>
+        <v>4152.823587454131</v>
       </c>
       <c r="S24">
-        <v>0.03726431640818729</v>
+        <v>0.03126651470785227</v>
       </c>
       <c r="T24">
-        <v>0.03726431640818727</v>
+        <v>0.03126651470785228</v>
       </c>
     </row>
     <row r="25" spans="1:20">
@@ -1966,16 +1966,16 @@
         <v>1</v>
       </c>
       <c r="G25">
-        <v>43.83143633333333</v>
+        <v>28.463871</v>
       </c>
       <c r="H25">
-        <v>131.494309</v>
+        <v>85.39161300000001</v>
       </c>
       <c r="I25">
-        <v>0.3403461170089362</v>
+        <v>0.2444434507347945</v>
       </c>
       <c r="J25">
-        <v>0.3403461170089362</v>
+        <v>0.2444434507347945</v>
       </c>
       <c r="K25">
         <v>3</v>
@@ -1984,28 +1984,28 @@
         <v>1</v>
       </c>
       <c r="M25">
-        <v>15.358189</v>
+        <v>20.32546233333333</v>
       </c>
       <c r="N25">
-        <v>46.074567</v>
+        <v>60.976387</v>
       </c>
       <c r="O25">
-        <v>0.1372160265679646</v>
+        <v>0.1603741949973873</v>
       </c>
       <c r="P25">
-        <v>0.1372160265679646</v>
+        <v>0.1603741949973873</v>
       </c>
       <c r="Q25">
-        <v>673.1714833488003</v>
+        <v>578.541337871359</v>
       </c>
       <c r="R25">
-        <v>6058.543350139203</v>
+        <v>5206.872040842231</v>
       </c>
       <c r="S25">
-        <v>0.04670094183380179</v>
+        <v>0.03920242163397618</v>
       </c>
       <c r="T25">
-        <v>0.04670094183380178</v>
+        <v>0.03920242163397618</v>
       </c>
     </row>
     <row r="26" spans="1:20">
@@ -2028,16 +2028,16 @@
         <v>1</v>
       </c>
       <c r="G26">
-        <v>43.83143633333333</v>
+        <v>28.463871</v>
       </c>
       <c r="H26">
-        <v>131.494309</v>
+        <v>85.39161300000001</v>
       </c>
       <c r="I26">
-        <v>0.3403461170089362</v>
+        <v>0.2444434507347945</v>
       </c>
       <c r="J26">
-        <v>0.3403461170089362</v>
+        <v>0.2444434507347945</v>
       </c>
       <c r="K26">
         <v>3</v>
@@ -2046,28 +2046,28 @@
         <v>1</v>
       </c>
       <c r="M26">
-        <v>13.120599</v>
+        <v>10.513928</v>
       </c>
       <c r="N26">
-        <v>39.361797</v>
+        <v>31.541784</v>
       </c>
       <c r="O26">
-        <v>0.1172245282937728</v>
+        <v>0.08295814932067838</v>
       </c>
       <c r="P26">
-        <v>0.1172245282937728</v>
+        <v>0.08295814932067838</v>
       </c>
       <c r="Q26">
-        <v>575.0946997236969</v>
+        <v>299.267090295288</v>
       </c>
       <c r="R26">
-        <v>5175.852297513272</v>
+        <v>2693.403812657592</v>
       </c>
       <c r="S26">
-        <v>0.03989691302298975</v>
+        <v>0.02027857628651897</v>
       </c>
       <c r="T26">
-        <v>0.03989691302298973</v>
+        <v>0.02027857628651897</v>
       </c>
     </row>
   </sheetData>
